--- a/en_cn_vn_fr.xlsx
+++ b/en_cn_vn_fr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Python_202502\中英越文字練習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE564C07-83E3-4A3C-87C9-5DA366D9F98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B2BE20-D062-497E-8681-FA3DC7CAC424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E33BD38-7F5E-43B6-8E00-5F442DCA759D}"/>
   </bookViews>
@@ -1348,10 +1348,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>french</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nori / algue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1374,6 +1370,9 @@
   <si>
     <t>crêpe vietnamienne</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>français</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39B314A5-ABD6-449B-8C62-2AE9AAA38813}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1903,8 +1902,8 @@
       <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>267</v>
+      <c r="D1" s="2" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.2">
@@ -2030,7 +2029,7 @@
         <v>78</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2562,7 +2561,7 @@
         <v>256</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2646,7 +2645,7 @@
         <v>143</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2786,7 +2785,7 @@
         <v>265</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2800,7 +2799,7 @@
         <v>174</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2828,7 +2827,7 @@
         <v>266</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2842,7 +2841,7 @@
         <v>181</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:4">
